--- a/pages/Aplicativo/Reportes/Reporte_Epocas_Cambio_Adquisicion.xlsx
+++ b/pages/Aplicativo/Reportes/Reporte_Epocas_Cambio_Adquisicion.xlsx
@@ -477,7 +477,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22.8" customWidth="1" min="1" max="1"/>
-    <col width="22.8" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
     <col width="10.8" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="13.2" customWidth="1" min="5" max="5"/>
@@ -489,7 +489,7 @@
     <col width="30" customWidth="1" min="11" max="11"/>
     <col width="26.4" customWidth="1" min="12" max="12"/>
     <col width="25.2" customWidth="1" min="13" max="13"/>
-    <col width="62.4" customWidth="1" min="14" max="14"/>
+    <col width="61.2" customWidth="1" min="14" max="14"/>
     <col width="16.8" customWidth="1" min="15" max="15"/>
     <col width="14.4" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" min="17" max="17"/>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45296.90544876952</v>
+        <v>45331.65845085699</v>
       </c>
     </row>
     <row r="9"/>
@@ -657,31 +657,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACH1</t>
+          <t>ARAUC</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHICHIMENE-1 META</t>
+          <t>ARAUCA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.942</v>
+        <v>7.065</v>
       </c>
       <c r="D11" t="n">
-        <v>-73.67100000000001</v>
+        <v>-70.70699999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>493</v>
+        <v>129</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>ARAUCA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ACACÍAS</t>
+          <t>ARAUCA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -701,37 +701,37 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>JOHNNATAN FERNANDEZ</t>
+          <t>ARIEL PORTOCARRERO</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>OMAR MERCADO</t>
+          <t>ELIZABETH MAZO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Trillium 120P, 120 s, 1201 V/m/s-Taurus, 40 Vpp (g</t>
+          <t>CMG-5T, DC_100 s,  0.255 V/m/s**2, 4g clip level,</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Activa</t>
+          <t>Retirada</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Satelital</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
